--- a/biology/Botanique/Theligonaceae/Theligonaceae.xlsx
+++ b/biology/Botanique/Theligonaceae/Theligonaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Theligonaceae (ou Thelygonaceae) constituent une famille de plantes dicotylédones proches des Rubiacées. Cette famille était notamment utilisée dans la classification classique de Cronquist (1981)[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Theligonaceae (ou Thelygonaceae) constituent une famille de plantes dicotylédones proches des Rubiacées. Cette famille était notamment utilisée dans la classification classique de Cronquist (1981).
 Selon Watson &amp; Dallwitz elle comprend trois espèces regroupées en un genre :
 Theligonum (en).
 </t>
@@ -513,9 +525,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre Theligonum, qui serait d'origine grec, de θηλυς / thilys, « femme ; féminin », et γονυ / gony, « genou ; articulation », d'après Théis, c'est le « nom sous lequel Pline[note 1] décrit une plante qui paraît être la mercuriale par le feuillage et par le port. Elle était appelée ainsi du fait de ses articulations renflées comparées au genou »[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre Theligonum, qui serait d'origine grec, de θηλυς / thilys, « femme ; féminin », et γονυ / gony, « genou ; articulation », d'après Théis, c'est le « nom sous lequel Pline[note 1] décrit une plante qui paraît être la mercuriale par le feuillage et par le port. Elle était appelée ainsi du fait de ses articulations renflées comparées au genou ».
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En classification phylogénétique APG II (2003)[3] et en classification phylogénétique APG III (2009)[4] cette famille n'existe pas : le genre Theligonum est inclus dans les Rubiacées.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En classification phylogénétique APG II (2003) et en classification phylogénétique APG III (2009) cette famille n'existe pas : le genre Theligonum est inclus dans les Rubiacées.
 </t>
         </is>
       </c>
